--- a/Data/corners.xlsx
+++ b/Data/corners.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>20</x:t>
   </x:si>
@@ -31,9 +31,6 @@
   </x:si>
   <x:si>
     <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -472,65 +469,65 @@
       <x:selection activeCell="A5" sqref="A5 A5:A5 A5:XFD5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="18.51125" defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="15" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q1" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="R1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T1" s="3" t="s">
         <x:v>0</x:v>
@@ -541,19 +538,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
         <x:v>0</x:v>
@@ -568,13 +565,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N2" s="3" t="s">
         <x:v>0</x:v>
@@ -583,16 +580,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T2" s="3" t="s">
         <x:v>0</x:v>
@@ -600,52 +597,52 @@
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q3" s="3" t="s">
         <x:v>0</x:v>
@@ -665,22 +662,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
         <x:v>0</x:v>
@@ -692,25 +689,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
         <x:v>0</x:v>
@@ -719,7 +716,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -736,28 +733,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
         <x:v>0</x:v>
@@ -766,7 +763,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
         <x:v>1</x:v>
@@ -775,10 +772,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
         <x:v>0</x:v>
@@ -786,31 +783,31 @@
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J6" s="3" t="s">
         <x:v>0</x:v>
@@ -822,7 +819,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="3" t="s">
         <x:v>0</x:v>
@@ -837,13 +834,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -854,10 +851,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>0</x:v>
@@ -866,10 +863,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
         <x:v>0</x:v>
@@ -887,13 +884,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P7" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q7" s="3" t="s">
         <x:v>0</x:v>
@@ -916,7 +913,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>0</x:v>
@@ -925,28 +922,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J8" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K8" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L8" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M8" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N8" s="3" t="s">
         <x:v>0</x:v>
@@ -961,13 +958,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -981,46 +978,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R9" s="3" t="s">
         <x:v>0</x:v>
@@ -1040,63 +1037,63 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K10" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O10" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q10" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R10" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A11" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
         <x:v>0</x:v>
@@ -1105,69 +1102,69 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q11" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T11" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>0</x:v>
@@ -1176,46 +1173,46 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K12" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P12" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S12" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T12" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1223,16 +1220,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
         <x:v>0</x:v>
@@ -1241,40 +1238,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P13" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R13" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S13" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T13" s="3" t="s">
         <x:v>0</x:v>
@@ -1282,96 +1279,96 @@
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P14" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R14" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S14" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T14" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K15" s="3" t="s">
         <x:v>0</x:v>
@@ -1380,146 +1377,146 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O15" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R15" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S15" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T15" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F16" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G16" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I16" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J16" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F16" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G16" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H16" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I16" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J16" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M16" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O16" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P16" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q16" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S16" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T16" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K17" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N17" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q17" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S17" s="3" t="s">
         <x:v>0</x:v>
@@ -1536,55 +1533,55 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E18" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F18" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G18" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I18" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J18" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K18" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L18" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M18" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N18" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O18" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G18" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L18" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M18" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N18" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O18" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="P18" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q18" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R18" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S18" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T18" s="3" t="s">
         <x:v>0</x:v>
@@ -1598,10 +1595,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
         <x:v>1</x:v>
@@ -1613,16 +1610,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J19" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K19" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L19" s="3" t="s">
         <x:v>0</x:v>
@@ -1631,87 +1628,87 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O19" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P19" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R19" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S19" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T19" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T20" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1738,59 +1735,59 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1 A5:XFD5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="18.51125" defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="15" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R1" s="3" t="s">
         <x:v>1</x:v>
@@ -1799,42 +1796,42 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L2" s="3" t="s">
         <x:v>1</x:v>
@@ -1843,16 +1840,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R2" s="3" t="s">
         <x:v>1</x:v>
@@ -1861,7 +1858,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -1872,66 +1869,66 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
         <x:v>1</x:v>
@@ -1940,46 +1937,46 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S4" s="3" t="s">
         <x:v>1</x:v>
@@ -1990,61 +1987,61 @@
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T5" s="3" t="s">
         <x:v>1</x:v>
@@ -2052,99 +2049,99 @@
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J7" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L7" s="3" t="s">
         <x:v>1</x:v>
@@ -2153,54 +2150,54 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J8" s="3" t="s">
         <x:v>1</x:v>
@@ -2212,25 +2209,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T8" s="3" t="s">
         <x:v>1</x:v>
@@ -2238,52 +2235,52 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="s">
         <x:v>1</x:v>
@@ -2292,7 +2289,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T9" s="3" t="s">
         <x:v>1</x:v>
@@ -2303,185 +2300,185 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O10" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A11" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K11" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="L11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="R11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A12" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M12" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P12" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T12" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2489,22 +2486,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
         <x:v>1</x:v>
@@ -2513,34 +2510,34 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T13" s="3" t="s">
         <x:v>1</x:v>
@@ -2548,55 +2545,55 @@
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R14" s="3" t="s">
         <x:v>1</x:v>
@@ -2610,64 +2607,64 @@
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A15" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G15" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2675,7 +2672,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
         <x:v>1</x:v>
@@ -2684,16 +2681,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G16" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
         <x:v>1</x:v>
@@ -2702,19 +2699,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P16" s="3" t="s">
         <x:v>1</x:v>
@@ -2723,13 +2720,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S16" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2737,58 +2734,58 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I17" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J17" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L17" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O17" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R17" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T17" s="3" t="s">
         <x:v>1</x:v>
@@ -2805,25 +2802,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H18" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I18" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K18" s="3" t="s">
         <x:v>1</x:v>
@@ -2832,28 +2829,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -2861,25 +2858,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
         <x:v>1</x:v>
@@ -2888,60 +2885,60 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K19" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L19" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M19" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
         <x:v>1</x:v>
@@ -2950,22 +2947,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K20" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M20" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="s">
         <x:v>1</x:v>
@@ -2977,7 +2974,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3004,68 +3001,68 @@
       <x:selection activeCell="A1" sqref="A1 A1:A1 A5:XFD5"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="18.51125" defaultRowHeight="15" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="255" defaultRowHeight="15" zeroHeight="false"/>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L1" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -3076,46 +3073,46 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K2" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q2" s="3" t="s">
         <x:v>1</x:v>
@@ -3127,48 +3124,48 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T2" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="G3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N3" s="3" t="s">
         <x:v>1</x:v>
@@ -3180,134 +3177,134 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M4" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P4" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R4" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M5" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="M5" s="3" t="s">
+      <x:c r="N5" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="N5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="O5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P5" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R5" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S5" s="3" t="s">
         <x:v>1</x:v>
@@ -3318,52 +3315,52 @@
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M6" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q6" s="3" t="s">
         <x:v>1</x:v>
@@ -3372,196 +3369,196 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T6" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A7" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J7" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L7" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M7" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O7" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P7" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="Q7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S7" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T7" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T8" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A9" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N9" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R9" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -3569,55 +3566,55 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F10" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F10" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L10" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O10" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="P10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S10" s="3" t="s">
         <x:v>1</x:v>
@@ -3631,61 +3628,61 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M11" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="N11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q11" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
@@ -3693,55 +3690,55 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I12" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L12" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q12" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="R12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S12" s="3" t="s">
         <x:v>1</x:v>
@@ -3755,232 +3752,232 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I13" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P13" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R13" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A14" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K14" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L14" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S14" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="T14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A15" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E15" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F15" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G15" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H15" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I15" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J15" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K15" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L15" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M15" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N15" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O15" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F15" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G15" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H15" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I15" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J15" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K15" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L15" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M15" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N15" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O15" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="P15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R15" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H16" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J16" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K16" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L16" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K16" s="3" t="s">
+      <x:c r="M16" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L16" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="M16" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="N16" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O16" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P16" s="3" t="s">
         <x:v>1</x:v>
@@ -3989,7 +3986,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S16" s="3" t="s">
         <x:v>1</x:v>
@@ -4000,61 +3997,61 @@
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I17" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J17" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I17" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J17" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="K17" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L17" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L17" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="M17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N17" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O17" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q17" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T17" s="3" t="s">
         <x:v>1</x:v>
@@ -4062,120 +4059,120 @@
     </x:row>
     <x:row r="18" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G18" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H18" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I18" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J18" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K18" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L18" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M18" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N18" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I18" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="J18" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K18" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L18" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M18" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N18" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="O18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R18" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="S18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A19" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F19" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G19" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H19" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I19" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J19" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K19" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L19" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M19" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="J19" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K19" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L19" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M19" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="N19" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q19" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S19" s="3" t="s">
         <x:v>1</x:v>
@@ -4186,64 +4183,64 @@
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="15" customHeight="1" outlineLevel="0">
       <x:c r="A20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G20" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I20" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J20" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K20" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L20" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M20" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="J20" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K20" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L20" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M20" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="N20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O20" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="P20" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
